--- a/HaierMDM/2015年9月1日供应商增加第三方支付视图/供应商快捷通.xlsx
+++ b/HaierMDM/2015年9月1日供应商增加第三方支付视图/供应商快捷通.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="申请单表设计" sheetId="1" r:id="rId1"/>
     <sheet name="主数据表设计" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="值集配置" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="117">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -372,6 +373,25 @@
   </si>
   <si>
     <t>状态（值集）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷通状态</t>
+  </si>
+  <si>
+    <t>FinanceOrgShort</t>
+  </si>
+  <si>
+    <t>开户机构简称</t>
+  </si>
+  <si>
+    <t>FinanceType</t>
+  </si>
+  <si>
+    <t>快捷通类型</t>
+  </si>
+  <si>
+    <t>FinanceFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +412,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -421,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -429,6 +456,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -732,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,7 +1126,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1141,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1646,7 +1675,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="1"/>
@@ -1711,7 +1740,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1805,7 +1834,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2025,4 +2054,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HaierMDM/2015年9月1日供应商增加第三方支付视图/供应商快捷通.xlsx
+++ b/HaierMDM/2015年9月1日供应商增加第三方支付视图/供应商快捷通.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="申请单表设计" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="值集配置" sheetId="5" r:id="rId5"/>
+    <sheet name="修改记录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="116">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -232,27 +233,6 @@
     <t>发布审核标志(0,未审核,1,审核)</t>
   </si>
   <si>
-    <t>ACTIVE_RANGE</t>
-  </si>
-  <si>
-    <t>'ALL'</t>
-  </si>
-  <si>
-    <t>作用范围(ALL,所有,PAY,付款,BIL,开票</t>
-  </si>
-  <si>
-    <t>ACTIVE_CLASS</t>
-  </si>
-  <si>
-    <t>作用范围子分类</t>
-  </si>
-  <si>
-    <t>ACTIVE_DESC</t>
-  </si>
-  <si>
-    <t>作用范围描述</t>
-  </si>
-  <si>
     <t>hm_vendor_bank_his;</t>
   </si>
   <si>
@@ -377,21 +357,50 @@
   </si>
   <si>
     <t>快捷通状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinanceFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FinanceOrgShort</t>
-  </si>
-  <si>
-    <t>开户机构简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷通类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FinanceType</t>
-  </si>
-  <si>
-    <t>快捷通类型</t>
-  </si>
-  <si>
-    <t>FinanceFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1增加信新表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW_FINANCE_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改供应商第三方财务支付视图（默认为null，修改时为X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 修改 hm_apply_vendor （以及下挂表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 修改main.jsp和applyVendorInfo.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 修改applyvendor的两个实体类和BO DAO ACTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -458,6 +467,13 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -761,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1008,7 +1024,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -1020,12 +1036,12 @@
         <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -1037,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1093,7 +1109,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1110,19 +1126,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1168,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1484,251 +1500,197 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,10 +1710,10 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D1" t="str">
         <f>B1&amp;C1</f>
@@ -1761,10 +1723,10 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D6" si="0">B2&amp;C2</f>
@@ -1774,10 +1736,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1787,10 +1749,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1800,10 +1762,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1813,10 +1775,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1997,7 +1959,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2006,7 +1968,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2060,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2071,30 +2033,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H1" s="5"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H3" s="5"/>
       <c r="J3" s="5"/>
@@ -2104,4 +2066,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A12:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HaierMDM/2015年9月1日供应商增加第三方支付视图/供应商快捷通.xlsx
+++ b/HaierMDM/2015年9月1日供应商增加第三方支付视图/供应商快捷通.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="120">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -401,6 +401,22 @@
   </si>
   <si>
     <t>4 修改applyvendor的两个实体类和BO DAO ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 修改vendor的两个实体类和BO DAO ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 修改vendor 和applyvendor的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 修改dw 和ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8修改example.Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,18 +478,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1142,16 +1158,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1637,7 +1653,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="1"/>
@@ -1654,11 +1670,11 @@
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2038,8 +2054,8 @@
       <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -2048,8 +2064,8 @@
       <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2058,8 +2074,8 @@
       <c r="B3" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2070,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2110,20 +2126,20 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="s">
@@ -2131,12 +2147,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
@@ -2145,34 +2161,34 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -2181,37 +2197,97 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A28:D29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="B6:C6"/>
